--- a/documents/Exceedence Table by Site 2019-2020.xlsx
+++ b/documents/Exceedence Table by Site 2019-2020.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22044" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22044" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Fecal Coliform</t>
   </si>
@@ -96,13 +97,58 @@
   </si>
   <si>
     <t>B (Water Recreation)  Fail / Pass</t>
+  </si>
+  <si>
+    <t>possible suggestion:</t>
+  </si>
+  <si>
+    <t>have date and site columns w/6 thresholds in adjacent columns</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>200 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>30-day rolling geometric mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-day rolling geometric mean </t>
+  </si>
+  <si>
+    <t>14 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>35 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>Regulatory Threshold</t>
+  </si>
+  <si>
+    <t>% of samples in prior 30-Day period exceeding 400 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>% of samples in prior 30-Day period exceeding 31 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>% of samples in prior 30-Day period exceeding 130 CFU/100 mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +180,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,41 +275,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K21"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,304 +633,311 @@
     <col min="7" max="7" width="2" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6" t="s">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="10" t="s">
+      <c r="I4" s="12"/>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>2019</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7">
         <v>2020</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
         <f t="shared" ref="D7:D15" si="0">0/4</f>
         <v>0</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>2019</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="7">
         <v>2020</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>2019</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="7">
         <v>2020</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>2019</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15">
+      <c r="C12" s="10"/>
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10">
+      <c r="I12" s="10"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="7">
         <v>2020</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15">
+      <c r="C13" s="10"/>
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="I13" s="10"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>2019</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15">
+      <c r="C14" s="10"/>
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10">
+      <c r="I14" s="10"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="7">
         <v>2020</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15">
+      <c r="C15" s="10"/>
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="16"/>
+      <c r="I15" s="10"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="16"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="16"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="16"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="16"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="16"/>
+      <c r="K21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F14">
     <cfRule type="colorScale" priority="1">
@@ -867,4 +952,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="19"/>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>